--- a/public/excel/学生档案信息模板.xlsx
+++ b/public/excel/学生档案信息模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seven/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3401C1-2D5E-474D-96A9-94168236C7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709B4B18-DABB-F04E-8280-08256BD04649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="3120" windowWidth="28300" windowHeight="17440" xr2:uid="{1C97857D-29B0-324F-A881-CAB4C1E4BBC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>年级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>性别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +103,10 @@
   </si>
   <si>
     <t>（说明：请按右边示例填写，否则可能导致数据解析失败！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -498,30 +506,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C422B5-56CD-2840-A088-82595BE602C2}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -529,14 +537,17 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,23 +560,26 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
